--- a/1.xlsx
+++ b/1.xlsx
@@ -17,13 +17,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +50,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,62 +433,1730 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>单词</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>释意</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>词频</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>n.资料，数据</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>artificial</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>a.人工的，人造的</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>a.主要的</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>intelligence</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>n.智力,才智,智慧</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>future</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>n.将来</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>will</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>n.意志,遗嘱</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>convenient</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>a.便利的，方便的</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>depend</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>vi.依靠，依赖，指望；取决于</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>instead</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>ad.代替，顶替</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>just</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>ad.刚才；恰好；不过；仅a.公正的</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>imagine</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>vt.想像，设想</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>saying</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>n.说，俗话，谚语</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>n.正餐，宴会</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>robot</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>n.机器人</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>yummy</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>a.很好吃的</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>amazing</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>a.惊奇,惊叹的;震惊的</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>substitute</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>v.代替，取代n.替代品</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>coin</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>n.硬币v.创造</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>serious</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>a.严肃的,严重的,认真的</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>which</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>pron.那(哪)一个；那(哪)一些a.这(哪)个；这(哪)些；无论哪个(些)</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>lead</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>v.领导，带领n.铅</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>society</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>n.社会</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>efficient</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>a.效率高的，有能力的</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>exactly</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>ad.精确地；确切地</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>consequence</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>n.结果，后果</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>definitely</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>ad.肯定，当然，毫无疑问</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>expect</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>vt.预料；盼望；认为</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>case</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>n.情况；病例；案件；真相n.箱；盒；容器</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>control</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>vt.&amp;n.控制</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>crash</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>v./n.碰撞，撞击</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>disturbing</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>a.令人不安的，引起恐慌的</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>vt./n.攻击，袭击</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>live</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>vi.生活;居住;活着a.活的,活着的;实况,现场（直播）的</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>terrible</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>a.可怕的；糟糕的</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>accident</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>n.事故，意外的事</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>a.大体，笼统的，总的</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>anyhow</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>ad.不管怎样，无论如何</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>push</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>n.&amp;v.推</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>apply</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>v.申请；应用，运用</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="1" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
+      <c r="D58" s="1" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="1" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="1" t="n"/>
+      <c r="D60" s="1" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="1" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="n"/>
+      <c r="C66" s="1" t="n"/>
+      <c r="D66" s="1" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="1" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="n"/>
+      <c r="C72" s="1" t="n"/>
+      <c r="D72" s="1" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
+      <c r="D73" s="1" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="1" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n"/>
+      <c r="C75" s="1" t="n"/>
+      <c r="D75" s="1" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
+      <c r="D76" s="1" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="1" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="n"/>
+      <c r="D78" s="1" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n"/>
+      <c r="C79" s="1" t="n"/>
+      <c r="D79" s="1" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="n"/>
+      <c r="D80" s="1" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="n"/>
+      <c r="D81" s="1" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="n"/>
+      <c r="D82" s="1" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n"/>
+      <c r="C84" s="1" t="n"/>
+      <c r="D84" s="1" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n"/>
+      <c r="C85" s="1" t="n"/>
+      <c r="D85" s="1" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="1" t="n"/>
+      <c r="D86" s="1" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n"/>
+      <c r="C87" s="1" t="n"/>
+      <c r="D87" s="1" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="n"/>
+      <c r="D88" s="1" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n"/>
+      <c r="C89" s="1" t="n"/>
+      <c r="D89" s="1" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="1" t="n"/>
+      <c r="D90" s="1" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="1" t="n"/>
+      <c r="D91" s="1" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n"/>
+      <c r="C92" s="1" t="n"/>
+      <c r="D92" s="1" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="n"/>
+      <c r="C93" s="1" t="n"/>
+      <c r="D93" s="1" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="n"/>
+      <c r="C94" s="1" t="n"/>
+      <c r="D94" s="1" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="1" t="n"/>
+      <c r="D95" s="1" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="n"/>
+      <c r="C96" s="1" t="n"/>
+      <c r="D96" s="1" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="n"/>
+      <c r="C97" s="1" t="n"/>
+      <c r="D97" s="1" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="n"/>
+      <c r="C98" s="1" t="n"/>
+      <c r="D98" s="1" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n"/>
+      <c r="C99" s="1" t="n"/>
+      <c r="D99" s="1" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="n"/>
+      <c r="C100" s="1" t="n"/>
+      <c r="D100" s="1" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="n"/>
+      <c r="C101" s="1" t="n"/>
+      <c r="D101" s="1" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="n"/>
+      <c r="C102" s="1" t="n"/>
+      <c r="D102" s="1" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n"/>
+      <c r="C103" s="1" t="n"/>
+      <c r="D103" s="1" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n"/>
+      <c r="C104" s="1" t="n"/>
+      <c r="D104" s="1" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="n"/>
+      <c r="C105" s="1" t="n"/>
+      <c r="D105" s="1" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="n"/>
+      <c r="C106" s="1" t="n"/>
+      <c r="D106" s="1" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="n"/>
+      <c r="C107" s="1" t="n"/>
+      <c r="D107" s="1" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n"/>
+      <c r="B108" s="1" t="n"/>
+      <c r="C108" s="1" t="n"/>
+      <c r="D108" s="1" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="n"/>
+      <c r="C109" s="1" t="n"/>
+      <c r="D109" s="1" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n"/>
+      <c r="B110" s="1" t="n"/>
+      <c r="C110" s="1" t="n"/>
+      <c r="D110" s="1" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="n"/>
+      <c r="C111" s="1" t="n"/>
+      <c r="D111" s="1" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="n"/>
+      <c r="C112" s="1" t="n"/>
+      <c r="D112" s="1" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="n"/>
+      <c r="C113" s="1" t="n"/>
+      <c r="D113" s="1" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n"/>
+      <c r="B114" s="1" t="n"/>
+      <c r="C114" s="1" t="n"/>
+      <c r="D114" s="1" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="n"/>
+      <c r="C115" s="1" t="n"/>
+      <c r="D115" s="1" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="n"/>
+      <c r="C116" s="1" t="n"/>
+      <c r="D116" s="1" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="1" t="n"/>
+      <c r="C117" s="1" t="n"/>
+      <c r="D117" s="1" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="n"/>
+      <c r="C118" s="1" t="n"/>
+      <c r="D118" s="1" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="n"/>
+      <c r="C119" s="1" t="n"/>
+      <c r="D119" s="1" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="1" t="n"/>
+      <c r="C120" s="1" t="n"/>
+      <c r="D120" s="1" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n"/>
+      <c r="B121" s="1" t="n"/>
+      <c r="C121" s="1" t="n"/>
+      <c r="D121" s="1" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n"/>
+      <c r="B122" s="1" t="n"/>
+      <c r="C122" s="1" t="n"/>
+      <c r="D122" s="1" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n"/>
+      <c r="B123" s="1" t="n"/>
+      <c r="C123" s="1" t="n"/>
+      <c r="D123" s="1" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n"/>
+      <c r="B124" s="1" t="n"/>
+      <c r="C124" s="1" t="n"/>
+      <c r="D124" s="1" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n"/>
+      <c r="B125" s="1" t="n"/>
+      <c r="C125" s="1" t="n"/>
+      <c r="D125" s="1" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n"/>
+      <c r="B126" s="1" t="n"/>
+      <c r="C126" s="1" t="n"/>
+      <c r="D126" s="1" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="n"/>
+      <c r="C127" s="1" t="n"/>
+      <c r="D127" s="1" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="1" t="n"/>
+      <c r="C128" s="1" t="n"/>
+      <c r="D128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n"/>
+      <c r="B129" s="1" t="n"/>
+      <c r="C129" s="1" t="n"/>
+      <c r="D129" s="1" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n"/>
+      <c r="B130" s="1" t="n"/>
+      <c r="C130" s="1" t="n"/>
+      <c r="D130" s="1" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n"/>
+      <c r="B131" s="1" t="n"/>
+      <c r="C131" s="1" t="n"/>
+      <c r="D131" s="1" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n"/>
+      <c r="B132" s="1" t="n"/>
+      <c r="C132" s="1" t="n"/>
+      <c r="D132" s="1" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="n"/>
+      <c r="C133" s="1" t="n"/>
+      <c r="D133" s="1" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n"/>
+      <c r="B134" s="1" t="n"/>
+      <c r="C134" s="1" t="n"/>
+      <c r="D134" s="1" t="n"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n"/>
+      <c r="B135" s="1" t="n"/>
+      <c r="C135" s="1" t="n"/>
+      <c r="D135" s="1" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n"/>
+      <c r="B136" s="1" t="n"/>
+      <c r="C136" s="1" t="n"/>
+      <c r="D136" s="1" t="n"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="1" t="n"/>
+      <c r="C137" s="1" t="n"/>
+      <c r="D137" s="1" t="n"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n"/>
+      <c r="B138" s="1" t="n"/>
+      <c r="C138" s="1" t="n"/>
+      <c r="D138" s="1" t="n"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n"/>
+      <c r="B139" s="1" t="n"/>
+      <c r="C139" s="1" t="n"/>
+      <c r="D139" s="1" t="n"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n"/>
+      <c r="B140" s="1" t="n"/>
+      <c r="C140" s="1" t="n"/>
+      <c r="D140" s="1" t="n"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n"/>
+      <c r="B141" s="1" t="n"/>
+      <c r="C141" s="1" t="n"/>
+      <c r="D141" s="1" t="n"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n"/>
+      <c r="B142" s="1" t="n"/>
+      <c r="C142" s="1" t="n"/>
+      <c r="D142" s="1" t="n"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n"/>
+      <c r="B143" s="1" t="n"/>
+      <c r="C143" s="1" t="n"/>
+      <c r="D143" s="1" t="n"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n"/>
+      <c r="B144" s="1" t="n"/>
+      <c r="C144" s="1" t="n"/>
+      <c r="D144" s="1" t="n"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n"/>
+      <c r="B145" s="1" t="n"/>
+      <c r="C145" s="1" t="n"/>
+      <c r="D145" s="1" t="n"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n"/>
+      <c r="B146" s="1" t="n"/>
+      <c r="C146" s="1" t="n"/>
+      <c r="D146" s="1" t="n"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n"/>
+      <c r="B147" s="1" t="n"/>
+      <c r="C147" s="1" t="n"/>
+      <c r="D147" s="1" t="n"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n"/>
+      <c r="B148" s="1" t="n"/>
+      <c r="C148" s="1" t="n"/>
+      <c r="D148" s="1" t="n"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n"/>
+      <c r="B149" s="1" t="n"/>
+      <c r="C149" s="1" t="n"/>
+      <c r="D149" s="1" t="n"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n"/>
+      <c r="B150" s="1" t="n"/>
+      <c r="C150" s="1" t="n"/>
+      <c r="D150" s="1" t="n"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n"/>
+      <c r="B151" s="1" t="n"/>
+      <c r="C151" s="1" t="n"/>
+      <c r="D151" s="1" t="n"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n"/>
+      <c r="B152" s="1" t="n"/>
+      <c r="C152" s="1" t="n"/>
+      <c r="D152" s="1" t="n"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n"/>
+      <c r="B153" s="1" t="n"/>
+      <c r="C153" s="1" t="n"/>
+      <c r="D153" s="1" t="n"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n"/>
+      <c r="B154" s="1" t="n"/>
+      <c r="C154" s="1" t="n"/>
+      <c r="D154" s="1" t="n"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n"/>
+      <c r="B155" s="1" t="n"/>
+      <c r="C155" s="1" t="n"/>
+      <c r="D155" s="1" t="n"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="n"/>
+      <c r="C156" s="1" t="n"/>
+      <c r="D156" s="1" t="n"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n"/>
+      <c r="B157" s="1" t="n"/>
+      <c r="C157" s="1" t="n"/>
+      <c r="D157" s="1" t="n"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n"/>
+      <c r="B158" s="1" t="n"/>
+      <c r="C158" s="1" t="n"/>
+      <c r="D158" s="1" t="n"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n"/>
+      <c r="B159" s="1" t="n"/>
+      <c r="C159" s="1" t="n"/>
+      <c r="D159" s="1" t="n"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n"/>
+      <c r="B160" s="1" t="n"/>
+      <c r="C160" s="1" t="n"/>
+      <c r="D160" s="1" t="n"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n"/>
+      <c r="B161" s="1" t="n"/>
+      <c r="C161" s="1" t="n"/>
+      <c r="D161" s="1" t="n"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="1" t="n"/>
+      <c r="C162" s="1" t="n"/>
+      <c r="D162" s="1" t="n"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n"/>
+      <c r="B163" s="1" t="n"/>
+      <c r="C163" s="1" t="n"/>
+      <c r="D163" s="1" t="n"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n"/>
+      <c r="B164" s="1" t="n"/>
+      <c r="C164" s="1" t="n"/>
+      <c r="D164" s="1" t="n"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n"/>
+      <c r="B165" s="1" t="n"/>
+      <c r="C165" s="1" t="n"/>
+      <c r="D165" s="1" t="n"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n"/>
+      <c r="B166" s="1" t="n"/>
+      <c r="C166" s="1" t="n"/>
+      <c r="D166" s="1" t="n"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n"/>
+      <c r="B167" s="1" t="n"/>
+      <c r="C167" s="1" t="n"/>
+      <c r="D167" s="1" t="n"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n"/>
+      <c r="B168" s="1" t="n"/>
+      <c r="C168" s="1" t="n"/>
+      <c r="D168" s="1" t="n"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n"/>
+      <c r="B169" s="1" t="n"/>
+      <c r="C169" s="1" t="n"/>
+      <c r="D169" s="1" t="n"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n"/>
+      <c r="B170" s="1" t="n"/>
+      <c r="C170" s="1" t="n"/>
+      <c r="D170" s="1" t="n"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n"/>
+      <c r="B171" s="1" t="n"/>
+      <c r="C171" s="1" t="n"/>
+      <c r="D171" s="1" t="n"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n"/>
+      <c r="B172" s="1" t="n"/>
+      <c r="C172" s="1" t="n"/>
+      <c r="D172" s="1" t="n"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n"/>
+      <c r="B173" s="1" t="n"/>
+      <c r="C173" s="1" t="n"/>
+      <c r="D173" s="1" t="n"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n"/>
+      <c r="B174" s="1" t="n"/>
+      <c r="C174" s="1" t="n"/>
+      <c r="D174" s="1" t="n"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n"/>
+      <c r="B175" s="1" t="n"/>
+      <c r="C175" s="1" t="n"/>
+      <c r="D175" s="1" t="n"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n"/>
+      <c r="B176" s="1" t="n"/>
+      <c r="C176" s="1" t="n"/>
+      <c r="D176" s="1" t="n"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n"/>
+      <c r="B177" s="1" t="n"/>
+      <c r="C177" s="1" t="n"/>
+      <c r="D177" s="1" t="n"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n"/>
+      <c r="B178" s="1" t="n"/>
+      <c r="C178" s="1" t="n"/>
+      <c r="D178" s="1" t="n"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n"/>
+      <c r="B179" s="1" t="n"/>
+      <c r="C179" s="1" t="n"/>
+      <c r="D179" s="1" t="n"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n"/>
+      <c r="B180" s="1" t="n"/>
+      <c r="C180" s="1" t="n"/>
+      <c r="D180" s="1" t="n"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n"/>
+      <c r="B181" s="1" t="n"/>
+      <c r="C181" s="1" t="n"/>
+      <c r="D181" s="1" t="n"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n"/>
+      <c r="B182" s="1" t="n"/>
+      <c r="C182" s="1" t="n"/>
+      <c r="D182" s="1" t="n"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n"/>
+      <c r="B183" s="1" t="n"/>
+      <c r="C183" s="1" t="n"/>
+      <c r="D183" s="1" t="n"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n"/>
+      <c r="B184" s="1" t="n"/>
+      <c r="C184" s="1" t="n"/>
+      <c r="D184" s="1" t="n"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n"/>
+      <c r="B185" s="1" t="n"/>
+      <c r="C185" s="1" t="n"/>
+      <c r="D185" s="1" t="n"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n"/>
+      <c r="B186" s="1" t="n"/>
+      <c r="C186" s="1" t="n"/>
+      <c r="D186" s="1" t="n"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n"/>
+      <c r="B187" s="1" t="n"/>
+      <c r="C187" s="1" t="n"/>
+      <c r="D187" s="1" t="n"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n"/>
+      <c r="B188" s="1" t="n"/>
+      <c r="C188" s="1" t="n"/>
+      <c r="D188" s="1" t="n"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n"/>
+      <c r="B189" s="1" t="n"/>
+      <c r="C189" s="1" t="n"/>
+      <c r="D189" s="1" t="n"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n"/>
+      <c r="B190" s="1" t="n"/>
+      <c r="C190" s="1" t="n"/>
+      <c r="D190" s="1" t="n"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n"/>
+      <c r="B191" s="1" t="n"/>
+      <c r="C191" s="1" t="n"/>
+      <c r="D191" s="1" t="n"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n"/>
+      <c r="B192" s="1" t="n"/>
+      <c r="C192" s="1" t="n"/>
+      <c r="D192" s="1" t="n"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n"/>
+      <c r="B193" s="1" t="n"/>
+      <c r="C193" s="1" t="n"/>
+      <c r="D193" s="1" t="n"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n"/>
+      <c r="B194" s="1" t="n"/>
+      <c r="C194" s="1" t="n"/>
+      <c r="D194" s="1" t="n"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n"/>
+      <c r="B195" s="1" t="n"/>
+      <c r="C195" s="1" t="n"/>
+      <c r="D195" s="1" t="n"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n"/>
+      <c r="B196" s="1" t="n"/>
+      <c r="C196" s="1" t="n"/>
+      <c r="D196" s="1" t="n"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n"/>
+      <c r="B197" s="1" t="n"/>
+      <c r="C197" s="1" t="n"/>
+      <c r="D197" s="1" t="n"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n"/>
+      <c r="B198" s="1" t="n"/>
+      <c r="C198" s="1" t="n"/>
+      <c r="D198" s="1" t="n"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n"/>
+      <c r="B199" s="1" t="n"/>
+      <c r="C199" s="1" t="n"/>
+      <c r="D199" s="1" t="n"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n"/>
+      <c r="B200" s="1" t="n"/>
+      <c r="C200" s="1" t="n"/>
+      <c r="D200" s="1" t="n"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n"/>
+      <c r="B201" s="1" t="n"/>
+      <c r="C201" s="1" t="n"/>
+      <c r="D201" s="1" t="n"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n"/>
+      <c r="B202" s="1" t="n"/>
+      <c r="C202" s="1" t="n"/>
+      <c r="D202" s="1" t="n"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n"/>
+      <c r="B203" s="1" t="n"/>
+      <c r="C203" s="1" t="n"/>
+      <c r="D203" s="1" t="n"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n"/>
+      <c r="B204" s="1" t="n"/>
+      <c r="C204" s="1" t="n"/>
+      <c r="D204" s="1" t="n"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n"/>
+      <c r="B205" s="1" t="n"/>
+      <c r="C205" s="1" t="n"/>
+      <c r="D205" s="1" t="n"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n"/>
+      <c r="B206" s="1" t="n"/>
+      <c r="C206" s="1" t="n"/>
+      <c r="D206" s="1" t="n"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n"/>
+      <c r="B207" s="1" t="n"/>
+      <c r="C207" s="1" t="n"/>
+      <c r="D207" s="1" t="n"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n"/>
+      <c r="B208" s="1" t="n"/>
+      <c r="C208" s="1" t="n"/>
+      <c r="D208" s="1" t="n"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n"/>
+      <c r="B209" s="1" t="n"/>
+      <c r="C209" s="1" t="n"/>
+      <c r="D209" s="1" t="n"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n"/>
+      <c r="B210" s="1" t="n"/>
+      <c r="C210" s="1" t="n"/>
+      <c r="D210" s="1" t="n"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n"/>
+      <c r="B211" s="1" t="n"/>
+      <c r="C211" s="1" t="n"/>
+      <c r="D211" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
